--- a/Scheduling/Schedule/Schedule-Team4 (1).xlsx
+++ b/Scheduling/Schedule/Schedule-Team4 (1).xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CadeBlack/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\School Account\Desktop\Team4Project\Scheduling\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE73C35-C311-4E0E-9720-330FBCCB627A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7840" yWindow="460" windowWidth="16960" windowHeight="14500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Charts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,14 +31,18 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="218">
   <si>
     <t>Task#</t>
   </si>
@@ -621,9 +623,6 @@
     <t>013d</t>
   </si>
   <si>
-    <t>Creating Admin User</t>
-  </si>
-  <si>
     <t>Austin creating admin user</t>
   </si>
   <si>
@@ -660,12 +659,6 @@
     <t>Additional user now function</t>
   </si>
   <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debugging the system </t>
-  </si>
-  <si>
     <t>Majority of bugs repaired</t>
   </si>
   <si>
@@ -691,12 +684,24 @@
   </si>
   <si>
     <t>Austin debugging system</t>
+  </si>
+  <si>
+    <t>feature 1</t>
+  </si>
+  <si>
+    <t>feature 2</t>
+  </si>
+  <si>
+    <t>feature 3</t>
+  </si>
+  <si>
+    <t>project management</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -856,7 +861,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -899,8 +904,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.230757443198388"/>
-          <c:y val="0.0149393090569561"/>
+          <c:x val="0.23075744319838801"/>
+          <c:y val="1.4939309056956099E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -979,9 +984,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.105190487552692"/>
-          <c:y val="0.235475859635193"/>
-          <c:w val="0.771319642587445"/>
-          <c:h val="0.679222052219776"/>
+          <c:y val="0.23547585963519299"/>
+          <c:w val="0.77131964258744501"/>
+          <c:h val="0.67922205221977605"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -1020,7 +1025,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-CC3B-41DC-A942-46FC370616F5}"/>
               </c:ext>
@@ -1052,7 +1057,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-CC3B-41DC-A942-46FC370616F5}"/>
               </c:ext>
@@ -1064,7 +1069,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.126885124207959"/>
-                  <c:y val="-0.0186741363211951"/>
+                  <c:y val="-1.8674136321195099E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1100,17 +1105,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-CC3B-41DC-A942-46FC370616F5}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
-                      <c:w val="0.143921631008245"/>
+                      <c:w val="0.14392163100824501"/>
                       <c:h val="0.19266738716484"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CC3B-41DC-A942-46FC370616F5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1118,8 +1123,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0344652120505139"/>
-                  <c:y val="0.00948616717028018"/>
+                  <c:x val="-3.4465212050513901E-2"/>
+                  <c:y val="9.4861671702801808E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1155,17 +1160,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CC3B-41DC-A942-46FC370616F5}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.115643592240985"/>
-                      <c:h val="0.19086887835703"/>
+                      <c:h val="0.19086887835703001"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CC3B-41DC-A942-46FC370616F5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1215,7 +1220,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1240,15 +1245,15 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1048.5</c:v>
+                  <c:v>569.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-CC3B-41DC-A942-46FC370616F5}"/>
             </c:ext>
@@ -1308,7 +1313,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1351,8 +1356,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.191852525283655"/>
-          <c:y val="0.0110192837465565"/>
+          <c:x val="0.19185252528365501"/>
+          <c:y val="1.10192837465565E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1430,10 +1435,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0902777777777777"/>
-          <c:y val="0.203505586821686"/>
-          <c:w val="0.813888888888889"/>
-          <c:h val="0.683506946952732"/>
+          <c:x val="9.0277777777777707E-2"/>
+          <c:y val="0.20350558682168601"/>
+          <c:w val="0.81388888888888899"/>
+          <c:h val="0.68350694695273195"/>
         </c:manualLayout>
       </c:layout>
       <c:pie3DChart>
@@ -1473,7 +1478,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-9C3D-4670-8544-6D11D6AEBC0C}"/>
               </c:ext>
@@ -1505,7 +1510,7 @@
                 <a:bevelB w="127000" h="127000"/>
               </a:sp3d>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-9C3D-4670-8544-6D11D6AEBC0C}"/>
               </c:ext>
@@ -1517,7 +1522,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.102777777777778"/>
-                  <c:y val="0.00893742358022793"/>
+                  <c:y val="8.9374235802279298E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1553,17 +1558,17 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-9C3D-4670-8544-6D11D6AEBC0C}"/>
-                </c:ext>
+              <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout>
                     <c:manualLayout>
                       <c:w val="0.157944444444444"/>
-                      <c:h val="0.163111213629666"/>
+                      <c:h val="0.16311121362966599"/>
                     </c:manualLayout>
                   </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9C3D-4670-8544-6D11D6AEBC0C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1571,8 +1576,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0527777777777778"/>
-                  <c:y val="0.0270531318640854"/>
+                  <c:x val="-5.2777777777777798E-2"/>
+                  <c:y val="2.7053131864085402E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -1608,11 +1613,11 @@
               <c:showSerName val="0"/>
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
-              <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-9C3D-4670-8544-6D11D6AEBC0C}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1663,7 +1668,7 @@
                 <a:effectLst/>
               </c:spPr>
             </c:leaderLines>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
@@ -1688,15 +1693,15 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9C3D-4670-8544-6D11D6AEBC0C}"/>
             </c:ext>
@@ -2895,7 +2900,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2933,7 +2938,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,31 +3223,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="8" customWidth="1"/>
     <col min="6" max="6" width="1" style="8" customWidth="1"/>
-    <col min="7" max="7" width="1.1640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="4"/>
-    <col min="9" max="9" width="9.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="9" customWidth="1"/>
-    <col min="11" max="13" width="29.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="12.5" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="9.1640625" style="5"/>
+    <col min="7" max="7" width="1.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="9" customWidth="1"/>
+    <col min="11" max="13" width="29.7109375" style="19" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="15" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>15</v>
@@ -3295,7 +3300,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10">
         <f>SUM(E3:E100)</f>
-        <v>711</v>
+        <v>795</v>
       </c>
       <c r="F2" s="13">
         <f ca="1">TODAY() -C3</f>
@@ -3307,22 +3312,22 @@
       </c>
       <c r="H2" s="10">
         <f>SUM(H3:H100)</f>
-        <v>1108.5</v>
+        <v>699.5</v>
       </c>
       <c r="I2" s="14">
         <f>SUM(I3:I100)</f>
-        <v>1048.5</v>
+        <v>569.5</v>
       </c>
       <c r="J2" s="14">
         <f>SUM(J3:J100)</f>
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
       <c r="N2" s="14"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
@@ -3348,7 +3353,7 @@
       <c r="M3" s="18"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -3391,7 +3396,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3434,7 +3439,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -3477,7 +3482,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3520,7 +3525,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3563,7 +3568,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3606,7 +3611,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -3649,7 +3654,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3692,7 +3697,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3864,7 +3869,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3907,7 +3912,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3950,7 +3955,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -3993,7 +3998,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -4165,7 +4170,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -4251,7 +4256,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -4294,7 +4299,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -4337,7 +4342,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>53</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -4552,7 +4557,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -4638,7 +4643,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>57</v>
       </c>
@@ -4681,7 +4686,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -4724,7 +4729,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>77</v>
       </c>
@@ -4767,7 +4772,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>78</v>
       </c>
@@ -4810,7 +4815,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>79</v>
       </c>
@@ -4853,7 +4858,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>80</v>
       </c>
@@ -4896,7 +4901,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -4939,7 +4944,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>82</v>
       </c>
@@ -4982,7 +4987,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -5025,7 +5030,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -5197,7 +5202,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>88</v>
       </c>
@@ -5240,7 +5245,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>89</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
@@ -5323,7 +5328,7 @@
         <v>In Progress</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>186</v>
       </c>
@@ -5371,16 +5376,19 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
+      <c r="I51" s="4">
+        <v>0</v>
+      </c>
       <c r="J51" s="9">
         <f>H51-I51</f>
         <v>0</v>
       </c>
       <c r="N51" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>187</v>
       </c>
@@ -5395,16 +5403,19 @@
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
+      <c r="I52" s="4">
+        <v>0</v>
+      </c>
       <c r="J52" s="9">
         <f>H52-I52</f>
         <v>0</v>
       </c>
       <c r="N52" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>188</v>
       </c>
@@ -5419,16 +5430,19 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
+      <c r="I53" s="4">
+        <v>0</v>
+      </c>
       <c r="J53" s="9">
         <f>H53-I53</f>
         <v>0</v>
       </c>
       <c r="N53" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>189</v>
       </c>
@@ -5443,6 +5457,9 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
+      <c r="I54" s="4">
+        <v>0</v>
+      </c>
       <c r="J54" s="9">
         <f>H54-I54</f>
         <v>0</v>
@@ -5452,10 +5469,10 @@
       </c>
       <c r="N54" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>Not Started</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Complete</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>190</v>
       </c>
@@ -5486,55 +5503,36 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="22">
-        <v>44629</v>
-      </c>
-      <c r="D56" s="22">
-        <v>44640</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="9">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="4">
-        <v>419</v>
-      </c>
       <c r="I56" s="4">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L56" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="M56" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="N56" s="11" t="str">
         <f t="shared" si="4"/>
         <v>Complete</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="22">
         <v>44629</v>
@@ -5572,12 +5570,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C58" s="22">
         <v>44629</v>
@@ -5602,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>184</v>
@@ -5615,12 +5613,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C59" s="22">
         <v>44629</v>
@@ -5658,12 +5656,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C60" s="22">
         <v>44629</v>
@@ -5701,12 +5699,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C61" s="22">
         <v>44631</v>
@@ -5734,7 +5732,7 @@
         <v>183</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M61" s="19" t="s">
         <v>41</v>
@@ -5744,12 +5742,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C62" s="22">
         <v>44641</v>
@@ -5777,7 +5775,7 @@
         <v>183</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M62" s="19" t="s">
         <v>144</v>
@@ -5787,55 +5785,30 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C63" s="22">
-        <v>44642</v>
-      </c>
-      <c r="D63" s="22">
-        <v>44644</v>
-      </c>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="9">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
-      <c r="H63" s="4">
-        <v>60</v>
-      </c>
-      <c r="I63" s="4">
-        <v>60</v>
-      </c>
       <c r="J63" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K63" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="L63" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="M63" s="19" t="s">
-        <v>144</v>
-      </c>
       <c r="N63" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>Complete</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C64" s="22">
         <v>44642</v>
@@ -5863,7 +5836,7 @@
         <v>183</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>37</v>
@@ -5873,12 +5846,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C65" s="22">
         <v>44642</v>
@@ -5906,7 +5879,7 @@
         <v>183</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>41</v>
@@ -5916,12 +5889,12 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66" s="22">
         <v>44642</v>
@@ -5949,7 +5922,7 @@
         <v>183</v>
       </c>
       <c r="L66" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M66" s="19" t="s">
         <v>40</v>
@@ -5960,12 +5933,12 @@
       </c>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C67" s="22">
         <v>44642</v>
@@ -5993,7 +5966,7 @@
         <v>183</v>
       </c>
       <c r="L67" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M67" s="19" t="s">
         <v>39</v>
@@ -6003,71 +5976,131 @@
         <v>Complete</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D68" s="22">
+        <v>44665</v>
+      </c>
       <c r="E68" s="9">
         <f t="shared" ref="E68:E101" si="5">D68-C68</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
+      <c r="H68" s="4">
+        <v>20</v>
+      </c>
+      <c r="I68" s="4">
+        <v>0</v>
+      </c>
       <c r="J68" s="9">
         <f t="shared" ref="J68:J101" si="6">H68-I68</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N68" s="11" t="str">
         <f t="shared" ref="N68:N101" si="7">IF(A68="","",IF(I68="","Not Started",IF(H68=I68,"Complete",IF(H68&gt;I68,"In Progress"))))</f>
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="22">
+        <v>44644</v>
+      </c>
+      <c r="D69" s="22">
+        <v>44665</v>
+      </c>
       <c r="E69" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
+      <c r="H69" s="4">
+        <v>20</v>
+      </c>
+      <c r="I69" s="4">
+        <v>0</v>
+      </c>
       <c r="J69" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N69" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="22">
+        <v>44616</v>
+      </c>
+      <c r="D70" s="22">
+        <v>44665</v>
+      </c>
       <c r="E70" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
+      <c r="H70" s="4">
+        <v>20</v>
+      </c>
+      <c r="I70" s="4">
+        <v>0</v>
+      </c>
       <c r="J70" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N70" s="11" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="22">
+        <v>44665</v>
+      </c>
+      <c r="D71" s="22">
+        <v>44671</v>
+      </c>
       <c r="E71" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
+      <c r="H71" s="4">
+        <v>10</v>
+      </c>
+      <c r="I71" s="4">
+        <v>0</v>
+      </c>
       <c r="J71" s="9">
         <f>H71-I71</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N71" s="11" t="str">
         <f>IF(A71="","",IF(I71="","Not Started",IF(H71=I71,"Complete",IF(H71&gt;I71,"In Progress"))))</f>
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E72" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6083,7 +6116,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E73" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6099,7 +6132,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E74" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6115,7 +6148,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E75" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6131,7 +6164,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E76" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6147,7 +6180,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E77" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6163,7 +6196,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E78" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6179,7 +6212,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E79" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6195,7 +6228,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E80" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6211,7 +6244,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6227,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6243,7 +6276,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6259,7 +6292,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6275,7 +6308,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6291,7 +6324,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E86" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6307,7 +6340,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E87" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6323,7 +6356,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E88" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6339,7 +6372,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E89" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6355,7 +6388,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E90" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6371,7 +6404,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E91" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6387,7 +6420,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E92" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6403,7 +6436,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E93" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6419,7 +6452,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E94" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6435,7 +6468,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E95" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6451,7 +6484,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E96" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6467,7 +6500,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E97" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6483,7 +6516,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E98" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6499,7 +6532,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E99" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6515,7 +6548,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E100" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6531,7 +6564,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E101" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -6550,7 +6583,7 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N101" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>""""",Not Started, In Progress, Complete"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6560,14 +6593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
